--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="2250" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
     <sheet name="HomePage" sheetId="3" r:id="rId3"/>
-    <sheet name="AddUserPage" sheetId="4" r:id="rId4"/>
+    <sheet name="RolePage" sheetId="5" r:id="rId4"/>
+    <sheet name="AddUserPage" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>UserID</t>
   </si>
@@ -37,49 +39,55 @@
     <t>Username</t>
   </si>
   <si>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>Login - Demo POS</t>
+  </si>
+  <si>
+    <t>qademobillingTitle</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>SC Percentage</t>
+  </si>
+  <si>
+    <t>First_name_Field_Error</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
+    <t>Email_Field_Error</t>
+  </si>
+  <si>
+    <t>Invalid username or User already exist</t>
+  </si>
+  <si>
+    <t>Username_Field_Error</t>
+  </si>
+  <si>
+    <t>Confirm_Password_Field_Error</t>
+  </si>
+  <si>
+    <t>HomepageTitle</t>
+  </si>
+  <si>
+    <t>Home - ABC</t>
+  </si>
+  <si>
     <t>Nithya G</t>
   </si>
   <si>
-    <t>We can't find a user with that e-mail address.</t>
-  </si>
-  <si>
-    <t>Login - Demo POS</t>
-  </si>
-  <si>
-    <t>qademobillingTitle</t>
-  </si>
-  <si>
-    <t>Prefix</t>
-  </si>
-  <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>SC Percentage</t>
-  </si>
-  <si>
-    <t>First_name_Field_Error</t>
-  </si>
-  <si>
-    <t>This field is required.</t>
-  </si>
-  <si>
-    <t>Email_Field_Error</t>
-  </si>
-  <si>
-    <t>Invalid username or User already exist</t>
-  </si>
-  <si>
-    <t>Username_Field_Error</t>
-  </si>
-  <si>
-    <t>Confirm_Password_Field_Error</t>
-  </si>
-  <si>
-    <t>HomepageTitle</t>
-  </si>
-  <si>
-    <t>Home - ABC</t>
+    <t>Roles - ABC</t>
+  </si>
+  <si>
+    <t>RoleTitle</t>
   </si>
 </sst>
 </file>
@@ -469,10 +477,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -502,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -516,17 +524,43 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -534,11 +568,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -550,15 +584,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -566,42 +600,42 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
